--- a/biology/Botanique/Cyrtanthus/Cyrtanthus.xlsx
+++ b/biology/Botanique/Cyrtanthus/Cyrtanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrtanthus est un genre de plantes à fleurs appartenant à la famille des Amaryllidaceae que l'on trouve en Afrique du Sud, notamment dans la région du cap de Bonne-Espérance.
 </t>
@@ -511,15 +523,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Timmia J.F.Gmel[1].
-Gastronema Herb[2].
-Monella Herb[3].
-Vallota Herb[3].
-Cyphonema Herb[4].
-Eusipho Salisb[5].
-Anoiganthus Baker[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Timmia J.F.Gmel.
+Gastronema Herb.
+Monella Herb.
+Vallota Herb.
+Cyphonema Herb.
+Eusipho Salisb.
+Anoiganthus Baker
 Vallanthus Cif. &amp; Giacom.</t>
         </is>
       </c>
@@ -548,63 +562,65 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cyrtanthus angustifolius (L.f.) Aiton[7], Province du Cap.
-Cyrtanthus attenuatus R.A.Dyer[8], Province de l'État-Libre, jusqu'au Lesotho.
-Cyrtanthus bicolor R.A.Dyer[9], Mpumalanga, jusqu'au Swaziland.
-Cyrtanthus brachyscyphus Baker[10], Province Orientale du Cap et KwaZulu-Natal.
-Cyrtanthus brachysiphon Hilliard &amp; B.L.Burtt[11], KwaZulu-Natal.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cyrtanthus angustifolius (L.f.) Aiton, Province du Cap.
+Cyrtanthus attenuatus R.A.Dyer, Province de l'État-Libre, jusqu'au Lesotho.
+Cyrtanthus bicolor R.A.Dyer, Mpumalanga, jusqu'au Swaziland.
+Cyrtanthus brachyscyphus Baker, Province Orientale du Cap et KwaZulu-Natal.
+Cyrtanthus brachysiphon Hilliard &amp; B.L.Burtt, KwaZulu-Natal.
 Cyrtanthus breviflorus Harv., Thes. Cap. 2: 25 (1863). Kenya et Afrique du Sud.
-Cyrtanthus carneus Lindl.[12], Sud de la Province Occidentale du Cap.
-Cyrtanthus clavatus (L'Hér.)[13], Sud de la Province du Cap.
-Cyrtanthus collinus Ker Gawl.[14], Province du Cap.
-Cyrtanthus contractus N.E.Br.[15], Afrique du Sud.
-Cyrtanthus debilis Snijman[16], Sud de la Province Occidentale du Cap].
-Cyrtanthus elatus (Jacq.) Traub[17], Province du Cap.
-Cyrtanthus epiphyticus J.M.Wood[18], Province Orientale du Cap, jusqu'au KwaZulu-Natal.
-Cyrtanthus erubescens Killick[19], KwaZulu-Natal.
-Cyrtanthus eucallus R.A.Dyer[20], Mpumalanga.
-Cyrtanthus falcatus R.A.Dyer[21], KwaZulu-Natal.
-Cyrtanthus fergusoniae L.Bolus[22], Sud de la Province Occidentale du Cap.
-Cyrtanthus flammosus Snijman &amp; Van Jaarsv.[23], Province Orientale du Cap.
-Cyrtanthus flanaganii Baker in W.H.Harvey &amp; auct. suc. (eds.)[24], Afrique du Sud.
-Cyrtanthus flavus Barnes[22], Province Orientale du Cap.
-Cyrtanthus galpinii Baker[25], Ouest du Mozambique et Afrique du Sud.
-Cyrtanthus guthrieae L.Bolus[26], Sud de la Province Occidentale du Cap.
-Cyrtanthus helictus Lehm.[27], Province Orientale du Cap.
-Cyrtanthus herrei (F.M.Leight.) R.A.Dyer[28], Namibie et Province Occidentale du Cap.
-Cyrtanthus huttonii Baker[10], Mpumalanga et Province Orientale du Cap.
-Cyrtanthus inaequalis O'Brien[29], Sud de la Province Occidentale du Cap.
-Cyrtanthus junodii Beauverd[30], Province Septentrionale du Cap.
-Cyrtanthus labiatus R.A.Dyer[31], Province Orientale du Cap.
-Cyrtanthus leptosiphon Snijman[32], Sud de la Province Occidentale du Cap.
-Cyrtanthus leucanthus Schltr.[33], Sud de la Province Occidentale du Cap.
-Cyrtanthus loddigesianus (Herb.) R.A.Dyer[34], Province Orientale du Cap.
-Cyrtanthus mackenii Hook.f.[35], Sud de la Province Orientale du Cap, jusqu'au KwaZulu-Natal.
-Cyrtanthus macmasteri Snijman[36], Province Orientale du Cap.
-Cyrtanthus macowanii Baker[37], Mpumalanga et Province Orientale du Cap.
-Cyrtanthus montanus R.A.Dyer[38], Province Orientale du Cap.
-Cyrtanthus nutans R.A.Dyer[39], KwaZulu-Natal et Swaziland.
-Cyrtanthus obliquus (L.f.) Aiton[7], Province du Cap; jusqu'au KwaZulu-Natal.
-Cyrtanthus obrienii Baker[40], Province Orientale du Cap, jusqu'au KwaZulu-Natal.
-Cyrtanthus ochroleucus (Herb.) Burch. ex Steud.[41], Sud de la Province Occidentale du Cap.
-Cyrtanthus odorus Ker Gawl[42]. Sud de la Province Occidentale du Cap.
-Cyrtanthus rhodesianus Rendle[43], Sud de l'Afrique tropicale (Monts Chimanimani).
-Cyrtanthus rhododactylus Stapf[44], Province du Cap.
-Cyrtanthus rotundilobus N.E.Br[45]. Province Orientale du Cap.
-Cyrtanthus sanguineus (Lindl.) Walp[46]. Soudan et Tanzanie, Province Orientale du Cap et KwaZulu-Natal.
-Cyrtanthus smithiae Watt ex Harv.[47], Province Orientale du Cap.
-Cyrtanthus spiralis Burch. ex Ker Gawl[48]. Province Orientale du Cap.
-Cyrtanthus staadensis Schönland[49], Province Orientale du Cap.
-Cyrtanthus stenanthus Baker in W.H.Harvey &amp; auct. suc. (eds.)[50], Afrique du Sud.
-Cyrtanthus striatus Herb[51]. Province du Cap.
-Cyrtanthus suaveolens Schönland[52], Province Orientale du Cap.
-Cyrtanthus thorncroftii C.H.Wright[53], Province Septentrionale du Cap.
-Cyrtanthus tuckii Baker[54], Afrique du Sud.
-Cyrtanthus ventricosus Willd.[55], Sud de la Province du Cap.
-Cyrtanthus wellandii Snijman[56], Sud de la Province du Cap.
-Cyrtanthus welwitschii Hiern ex Baker[57], Sud de l'Afrique tropicale.</t>
+Cyrtanthus carneus Lindl., Sud de la Province Occidentale du Cap.
+Cyrtanthus clavatus (L'Hér.), Sud de la Province du Cap.
+Cyrtanthus collinus Ker Gawl., Province du Cap.
+Cyrtanthus contractus N.E.Br., Afrique du Sud.
+Cyrtanthus debilis Snijman, Sud de la Province Occidentale du Cap].
+Cyrtanthus elatus (Jacq.) Traub, Province du Cap.
+Cyrtanthus epiphyticus J.M.Wood, Province Orientale du Cap, jusqu'au KwaZulu-Natal.
+Cyrtanthus erubescens Killick, KwaZulu-Natal.
+Cyrtanthus eucallus R.A.Dyer, Mpumalanga.
+Cyrtanthus falcatus R.A.Dyer, KwaZulu-Natal.
+Cyrtanthus fergusoniae L.Bolus, Sud de la Province Occidentale du Cap.
+Cyrtanthus flammosus Snijman &amp; Van Jaarsv., Province Orientale du Cap.
+Cyrtanthus flanaganii Baker in W.H.Harvey &amp; auct. suc. (eds.), Afrique du Sud.
+Cyrtanthus flavus Barnes, Province Orientale du Cap.
+Cyrtanthus galpinii Baker, Ouest du Mozambique et Afrique du Sud.
+Cyrtanthus guthrieae L.Bolus, Sud de la Province Occidentale du Cap.
+Cyrtanthus helictus Lehm., Province Orientale du Cap.
+Cyrtanthus herrei (F.M.Leight.) R.A.Dyer, Namibie et Province Occidentale du Cap.
+Cyrtanthus huttonii Baker, Mpumalanga et Province Orientale du Cap.
+Cyrtanthus inaequalis O'Brien, Sud de la Province Occidentale du Cap.
+Cyrtanthus junodii Beauverd, Province Septentrionale du Cap.
+Cyrtanthus labiatus R.A.Dyer, Province Orientale du Cap.
+Cyrtanthus leptosiphon Snijman, Sud de la Province Occidentale du Cap.
+Cyrtanthus leucanthus Schltr., Sud de la Province Occidentale du Cap.
+Cyrtanthus loddigesianus (Herb.) R.A.Dyer, Province Orientale du Cap.
+Cyrtanthus mackenii Hook.f., Sud de la Province Orientale du Cap, jusqu'au KwaZulu-Natal.
+Cyrtanthus macmasteri Snijman, Province Orientale du Cap.
+Cyrtanthus macowanii Baker, Mpumalanga et Province Orientale du Cap.
+Cyrtanthus montanus R.A.Dyer, Province Orientale du Cap.
+Cyrtanthus nutans R.A.Dyer, KwaZulu-Natal et Swaziland.
+Cyrtanthus obliquus (L.f.) Aiton, Province du Cap; jusqu'au KwaZulu-Natal.
+Cyrtanthus obrienii Baker, Province Orientale du Cap, jusqu'au KwaZulu-Natal.
+Cyrtanthus ochroleucus (Herb.) Burch. ex Steud., Sud de la Province Occidentale du Cap.
+Cyrtanthus odorus Ker Gawl. Sud de la Province Occidentale du Cap.
+Cyrtanthus rhodesianus Rendle, Sud de l'Afrique tropicale (Monts Chimanimani).
+Cyrtanthus rhododactylus Stapf, Province du Cap.
+Cyrtanthus rotundilobus N.E.Br. Province Orientale du Cap.
+Cyrtanthus sanguineus (Lindl.) Walp. Soudan et Tanzanie, Province Orientale du Cap et KwaZulu-Natal.
+Cyrtanthus smithiae Watt ex Harv., Province Orientale du Cap.
+Cyrtanthus spiralis Burch. ex Ker Gawl. Province Orientale du Cap.
+Cyrtanthus staadensis Schönland, Province Orientale du Cap.
+Cyrtanthus stenanthus Baker in W.H.Harvey &amp; auct. suc. (eds.), Afrique du Sud.
+Cyrtanthus striatus Herb. Province du Cap.
+Cyrtanthus suaveolens Schönland, Province Orientale du Cap.
+Cyrtanthus thorncroftii C.H.Wright, Province Septentrionale du Cap.
+Cyrtanthus tuckii Baker, Afrique du Sud.
+Cyrtanthus ventricosus Willd., Sud de la Province du Cap.
+Cyrtanthus wellandii Snijman, Sud de la Province du Cap.
+Cyrtanthus welwitschii Hiern ex Baker, Sud de l'Afrique tropicale.</t>
         </is>
       </c>
     </row>
